--- a/src/pandas/excel/chart/data/3d_scatter.xlsx
+++ b/src/pandas/excel/chart/data/3d_scatter.xlsx
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
         <v>3.090169943749474E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C42" si="2">C2+0.1</f>
+        <f t="shared" ref="C3:C66" si="2">C2+0.1</f>
         <v>0.1</v>
       </c>
       <c r="D3">
@@ -443,7 +443,7 @@
         <v>0.2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D42" si="4">D3+0.1</f>
+        <f t="shared" ref="D4:D67" si="4">D3+0.1</f>
         <v>0.2</v>
       </c>
       <c r="E4">
@@ -1285,6 +1285,666 @@
       <c r="E42">
         <f t="shared" si="3"/>
         <v>12.566370614359178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <f t="shared" ref="A43:A48" si="5">D43*COS(E43)</f>
+        <v>3.8993317168101247</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B48" si="6">D43*SIN(E43)</f>
+        <v>1.2669696769373036</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E48" si="7">2*PI()/2*D43</f>
+        <v>12.880529879718157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <f t="shared" si="5"/>
+        <v>3.3978713763747725</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>2.4686980596283981</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>13.194689145077135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <f t="shared" si="5"/>
+        <v>2.5274765848576308</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>3.4787730758122777</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>13.508848410436112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <f t="shared" si="5"/>
+        <v>1.3596747752497635</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="6"/>
+        <v>4.1846486716986782</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="7"/>
+        <v>13.823007675795091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <f t="shared" si="5"/>
+        <v>2.4809256211899555E-15</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="7"/>
+        <v>14.137166941154069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <f t="shared" si="5"/>
+        <v>-1.4214781741247478</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="6"/>
+        <v>4.3748599749577091</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="7"/>
+        <v>14.451326206513047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <f t="shared" ref="A49:A70" si="8">D49*COS(E49)</f>
+        <v>-2.7625906857746143</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B70" si="9">D49*SIN(E49)</f>
+        <v>3.8023798735622587</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:E70" si="10">2*PI()/2*D49</f>
+        <v>14.765485471872026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <f t="shared" si="8"/>
+        <v>-3.883281572999735</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="9"/>
+        <v>2.8213692110038866</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="10"/>
+        <v>15.079644737231003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <f t="shared" si="8"/>
+        <v>-4.6601769298462425</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="9"/>
+        <v>1.5141832724372695</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>15.393804002589981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <f t="shared" si="8"/>
+        <v>-4.9999999999999982</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="9"/>
+        <v>2.9708223728275294E-14</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>15.70796326794896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <f t="shared" si="8"/>
+        <v>-4.8503882331052903</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="9"/>
+        <v>-1.5759866713122024</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>16.02212253330794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <f t="shared" si="8"/>
+        <v>-4.2068883707497484</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="9"/>
+        <v>-3.0564833119208266</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="10"/>
+        <v>16.336281798666917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <f t="shared" si="8"/>
+        <v>-3.1152618371501464</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="9"/>
+        <v>-4.2877900701871896</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="10"/>
+        <v>16.650441064025895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <f t="shared" si="8"/>
+        <v>-1.6686917696247732</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="9"/>
+        <v>-5.1357051879938078</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="10"/>
+        <v>16.964600329384872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <f t="shared" si="8"/>
+        <v>-7.2095812393008168E-14</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="9"/>
+        <v>-5.4999999999999964</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="10"/>
+        <v>17.27875959474385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <f t="shared" si="8"/>
+        <v>1.7304951684996439</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="9"/>
+        <v>-5.325916491252876</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="10"/>
+        <v>17.592918860102831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <f t="shared" si="8"/>
+        <v>3.3503759380670335</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="9"/>
+        <v>-4.6113968679372404</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="10"/>
+        <v>17.907078125461808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <f t="shared" si="8"/>
+        <v>4.6922985673746407</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="9"/>
+        <v>-3.4091544632964115</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="10"/>
+        <v>18.221237390820786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <f t="shared" si="8"/>
+        <v>5.6112334461413713</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="9"/>
+        <v>-1.8232002668122822</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="10"/>
+        <v>18.535396656179763</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <f t="shared" si="8"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="9"/>
+        <v>-1.1099194480168596E-13</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="10"/>
+        <v>18.849555921538741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <f t="shared" si="8"/>
+        <v>5.8014447494004697</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="9"/>
+        <v>1.8850036656870599</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="10"/>
+        <v>19.163715186897718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <f t="shared" si="8"/>
+        <v>5.0159053651247367</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="9"/>
+        <v>3.6442685642132369</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="10"/>
+        <v>19.4778744522567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <f t="shared" si="8"/>
+        <v>3.7030470894426806</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="9"/>
+        <v>5.0968070645620882</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="10"/>
+        <v>19.792033717615677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <f t="shared" si="8"/>
+        <v>1.9777087639997959</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="9"/>
+        <v>6.086761704288933</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="10"/>
+        <v>20.106192982974655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <f t="shared" si="8"/>
+        <v>1.5527840515130991E-13</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="9"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:D72" si="11">C66+0.1</f>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="10"/>
+        <v>20.420352248333632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <f t="shared" si="8"/>
+        <v>-2.0395121628744897</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>6.276973007548059</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="11"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="11"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="10"/>
+        <v>20.73451151369261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <f t="shared" si="8"/>
+        <v>-3.9381611903594358</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>5.4204138623122358</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="11"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="11"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="10"/>
+        <v>21.048670779051591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <f t="shared" si="8"/>
+        <v>-5.5013155617495331</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>3.9969397155889537</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="11"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="11"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>21.362830044410568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <f t="shared" ref="A71:A72" si="12">D71*COS(E71)</f>
+        <v>-6.562289962436493</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B72" si="13">D71*SIN(E71)</f>
+        <v>2.1322172611873151</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="11"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="11"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E72" si="14">2*PI()/2*D71</f>
+        <v>21.676989309769546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <f t="shared" si="12"/>
+        <v>-6.9999999999999911</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="13"/>
+        <v>2.0495519344188004E-13</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="14"/>
+        <v>21.991148575128523</v>
       </c>
     </row>
   </sheetData>
